--- a/biology/Zoologie/Epiperipatus/Epiperipatus.xlsx
+++ b/biology/Zoologie/Epiperipatus/Epiperipatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiperipatus est un genre d'onychophores équatoriales.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (7 mars 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (7 mars 2020) :
 Epiperipatus barbadensis (Froehlich, 1962)
 Epiperipatus barbouri (Brues, 1911)
 Epiperipatus biolleyi (Bouvier, 1902)
 Epiperipatus brasiliensis (Bouvier, 1899)
 Epiperipatus broadwayi (Clark, 1913)
-Epiperipatus edwardsii (Blanchard, 1847) - espèce type[3]
+Epiperipatus edwardsii (Blanchard, 1847) - espèce type
 Epiperipatus evansi (Bouvier, 1904)
 Epiperipatus hilkae Morera-Brenes &amp; Monge-Najera, 1990
 Epiperipatus imthurmi (Sclater, 1888)
@@ -557,9 +571,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Epiperipatus fait référence au genre Peripatus dont l'auteur, lors de sa description originale, considérait qu'il n'était qu'un sous-genre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Epiperipatus fait référence au genre Peripatus dont l'auteur, lors de sa description originale, considérait qu'il n'était qu'un sous-genre.
 </t>
         </is>
       </c>
@@ -588,7 +604,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Austin Hobart Clark, « A revision of the American Species of Peripatus », Proceedings of the Biological Society of Washington, Washington, Biological Society of Washington (d), vol. 26,‎ 18 janvier 1913, p. 15-20 (ISSN 0006-324X et 1943-6327, OCLC 1536434, lire en ligne)</t>
         </is>
